--- a/simulation/robotstudio_sim/scripts/fitting_output/movej/comparison.xlsx
+++ b/simulation/robotstudio_sim/scripts/fitting_output/movej/comparison.xlsx
@@ -443,13 +443,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.107368221578559</v>
+        <v>1.093158690025436</v>
       </c>
       <c r="C6">
-        <v>2.47956032356222</v>
+        <v>2.433474940538211</v>
       </c>
       <c r="D6">
-        <v>3.086149886816967</v>
+        <v>3.156534315789439</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -457,13 +457,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.027681477191285</v>
+        <v>0.9945728463313697</v>
       </c>
       <c r="C7">
-        <v>2.687584858037269</v>
+        <v>2.433474940538211</v>
       </c>
       <c r="D7">
-        <v>3.101311608751963</v>
+        <v>3.063359039320664</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -474,10 +474,10 @@
         <v>0.9945728463313697</v>
       </c>
       <c r="C8">
-        <v>2.733990028012975</v>
+        <v>2.433474940538211</v>
       </c>
       <c r="D8">
-        <v>3.247739129229102</v>
+        <v>2.913918285473876</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -501,13 +501,13 @@
         <v>4</v>
       </c>
       <c r="B11">
-        <v>1.141036821460589</v>
+        <v>1.094752440809671</v>
       </c>
       <c r="C11">
-        <v>2.571867240089292</v>
+        <v>2.487928650397393</v>
       </c>
       <c r="D11">
-        <v>3.174870996873959</v>
+        <v>3.251429790670051</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -515,13 +515,13 @@
         <v>5</v>
       </c>
       <c r="B12">
-        <v>1.037186917674252</v>
+        <v>0.979437775111561</v>
       </c>
       <c r="C12">
-        <v>2.78984920653714</v>
+        <v>2.487928650397393</v>
       </c>
       <c r="D12">
-        <v>3.194781091419737</v>
+        <v>3.158026798110766</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -532,10 +532,10 @@
         <v>0.979437775111561</v>
       </c>
       <c r="C13">
-        <v>2.836722984097573</v>
+        <v>2.487928650397393</v>
       </c>
       <c r="D13">
-        <v>3.346373335182125</v>
+        <v>3.007136447251359</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -559,13 +559,13 @@
         <v>4</v>
       </c>
       <c r="B16">
-        <v>4381</v>
+        <v>4490</v>
       </c>
       <c r="C16">
-        <v>194</v>
+        <v>62</v>
       </c>
       <c r="D16">
-        <v>326</v>
+        <v>231</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -573,13 +573,13 @@
         <v>5</v>
       </c>
       <c r="B17">
-        <v>510</v>
+        <v>46</v>
       </c>
       <c r="C17">
-        <v>170</v>
+        <v>63</v>
       </c>
       <c r="D17">
-        <v>242</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -590,10 +590,10 @@
         <v>46</v>
       </c>
       <c r="C18">
-        <v>168</v>
+        <v>63</v>
       </c>
       <c r="D18">
-        <v>251</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -617,13 +617,13 @@
         <v>4</v>
       </c>
       <c r="B21">
-        <v>9324</v>
+        <v>4490</v>
       </c>
       <c r="C21">
-        <v>195</v>
+        <v>62</v>
       </c>
       <c r="D21">
-        <v>326</v>
+        <v>231</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -631,13 +631,13 @@
         <v>5</v>
       </c>
       <c r="B22">
-        <v>510</v>
+        <v>46</v>
       </c>
       <c r="C22">
-        <v>170</v>
+        <v>63</v>
       </c>
       <c r="D22">
-        <v>242</v>
+        <v>162</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -648,10 +648,10 @@
         <v>46</v>
       </c>
       <c r="C23">
-        <v>168</v>
+        <v>63</v>
       </c>
       <c r="D23">
-        <v>251</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -675,13 +675,13 @@
         <v>4</v>
       </c>
       <c r="B26">
-        <v>37.612</v>
+        <v>36.688</v>
       </c>
       <c r="C26">
-        <v>8.491999999999999</v>
+        <v>7.119999999999999</v>
       </c>
       <c r="D26">
-        <v>7.939</v>
+        <v>6.484</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -689,13 +689,13 @@
         <v>5</v>
       </c>
       <c r="B27">
-        <v>35.284</v>
+        <v>35.012</v>
       </c>
       <c r="C27">
-        <v>5.228000000000001</v>
+        <v>4.199999999999999</v>
       </c>
       <c r="D27">
-        <v>4.596</v>
+        <v>3.332</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -703,13 +703,13 @@
         <v>6</v>
       </c>
       <c r="B28">
-        <v>35.248</v>
+        <v>35</v>
       </c>
       <c r="C28">
-        <v>4.816</v>
+        <v>3.784000000000001</v>
       </c>
       <c r="D28">
-        <v>4.076000000000001</v>
+        <v>2.223999999999999</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -736,10 +736,10 @@
         <v>51.82288886862362</v>
       </c>
       <c r="C31">
-        <v>504.1832524247074</v>
+        <v>504.6846733019707</v>
       </c>
       <c r="D31">
-        <v>1049.689594079865</v>
+        <v>897.8029435060159</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -747,13 +747,13 @@
         <v>5</v>
       </c>
       <c r="B32">
-        <v>64.09345616342549</v>
+        <v>56.11228776547821</v>
       </c>
       <c r="C32">
-        <v>503.9289856954231</v>
+        <v>516.8224540753693</v>
       </c>
       <c r="D32">
-        <v>783.9668597994288</v>
+        <v>920.7269093757531</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -761,13 +761,13 @@
         <v>6</v>
       </c>
       <c r="B33">
-        <v>65.64743009028901</v>
+        <v>51.82288886862362</v>
       </c>
       <c r="C33">
-        <v>419.497705129743</v>
+        <v>429.3075095620402</v>
       </c>
       <c r="D33">
-        <v>733.6536509041593</v>
+        <v>1359.100418674648</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -797,7 +797,7 @@
         <v>0.9606316291334686</v>
       </c>
       <c r="D36">
-        <v>1.280842172177769</v>
+        <v>0.9606316291334686</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -808,7 +808,7 @@
         <v>0.9606316291338952</v>
       </c>
       <c r="C37">
-        <v>0.960631629133042</v>
+        <v>0.9606316291334686</v>
       </c>
       <c r="D37">
         <v>0.9606316291334686</v>
@@ -819,13 +819,13 @@
         <v>6</v>
       </c>
       <c r="B38">
-        <v>0.9606316291321888</v>
+        <v>0.9606316291338952</v>
       </c>
       <c r="C38">
-        <v>0.7685053033068431</v>
+        <v>0.7685053033065701</v>
       </c>
       <c r="D38">
-        <v>0.7685053033065701</v>
+        <v>0.9606316291334686</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -924,10 +924,10 @@
         <v>46</v>
       </c>
       <c r="C47">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D47">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -938,7 +938,7 @@
         <v>46</v>
       </c>
       <c r="C48">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D48">
         <v>48</v>
